--- a/localnews_evaluate.xlsx
+++ b/localnews_evaluate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github Repository\ta-newsX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E203EA-DAB8-4832-8CC2-88E90A84494E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867BCBCE-CCD0-4151-8A1C-DABB3C8827C8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
   <si>
     <t>title</t>
   </si>
@@ -1454,10 +1454,10 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.36328125" defaultRowHeight="14.5"/>
@@ -1518,7 +1518,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="101.5">
+    <row r="3" spans="1:7" ht="125" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="29">
+    <row r="6" spans="1:7" ht="62.5" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="87">
+    <row r="7" spans="1:7" ht="113" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="87">
+    <row r="8" spans="1:7" ht="135" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>21</v>
       </c>
